--- a/biology/Zoologie/Baicalellia_daftpunka/Baicalellia_daftpunka.xlsx
+++ b/biology/Zoologie/Baicalellia_daftpunka/Baicalellia_daftpunka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baicalellia daftpunka est une espèce marine de ver plat appartenant au genre Baicalellia, et un membre de la famille des Provorticidae et de l'ordre des Rhabdocoela.
-Son nom d'espèce daftpunka provient de la similitude de forme entre son stylet (en) et le casque des membres du groupe Daft Punk[1].
+Son nom d'espèce daftpunka provient de la similitude de forme entre son stylet (en) et le casque des membres du groupe Daft Punk.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Baicalellia daftpunka Stephenson, Van Steenkiste &amp; Leander, 2019[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Baicalellia daftpunka Stephenson, Van Steenkiste &amp; Leander, 2019.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en + fr + de) India Stephenson, Niels W. L. Van Steenkiste et Brian S. Leander, « Molecular phylogeny of neodalyellid flatworms (Rhabdocoela), including three new species from British Columbia », Journal of Zoological Systematics and Evolutionary Research, Wiley-Blackwell,‎ 10 août 2018 (ISSN 0947-5745 et 1439-0469, OCLC 45232394, DOI 10.1111/JZS.12243)
 </t>
